--- a/KALİTE DÖKÜMANLARI/FORMLAR/FR.110 Risk Takip Formu Yeni.xlsx
+++ b/KALİTE DÖKÜMANLARI/FORMLAR/FR.110 Risk Takip Formu Yeni.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="465" windowWidth="24240" windowHeight="11100"/>
+    <workbookView xWindow="165" yWindow="465" windowWidth="20730" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Riks ID</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>Yüksek</t>
+  </si>
+  <si>
+    <t>Deneme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +276,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Giriş" xfId="2" builtinId="20"/>
-    <cellStyle name="Kötü" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -573,14 +576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="28.140625" customWidth="1"/>
@@ -590,7 +593,7 @@
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -607,7 +610,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -622,7 +625,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="23.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -637,7 +640,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="23.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -652,7 +655,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="16" customFormat="1" ht="15.75">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -675,7 +678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6">
         <v>1</v>
       </c>
@@ -702,7 +705,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7">
         <v>2</v>
       </c>
@@ -729,9 +732,12 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="5"/>
@@ -743,7 +749,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>4</v>
       </c>
@@ -756,7 +762,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>5</v>
       </c>
@@ -769,7 +775,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>6</v>
       </c>
@@ -782,7 +788,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>7</v>
       </c>
@@ -795,7 +801,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>8</v>
       </c>
@@ -808,7 +814,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>9</v>
       </c>
@@ -821,7 +827,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>10</v>
       </c>
@@ -834,7 +840,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>11</v>
       </c>
@@ -847,7 +853,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>12</v>
       </c>
@@ -860,7 +866,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>13</v>
       </c>
@@ -873,7 +879,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>14</v>
       </c>
@@ -886,7 +892,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>16</v>
       </c>
@@ -899,7 +905,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>17</v>
       </c>
@@ -912,7 +918,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>18</v>
       </c>
@@ -925,7 +931,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="10">
         <v>19</v>
       </c>
@@ -952,12 +958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -965,12 +971,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/KALİTE DÖKÜMANLARI/FORMLAR/FR.110 Risk Takip Formu Yeni.xlsx
+++ b/KALİTE DÖKÜMANLARI/FORMLAR/FR.110 Risk Takip Formu Yeni.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Riks ID</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Deneme</t>
+  </si>
+  <si>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -580,7 +583,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -752,6 +755,9 @@
     <row r="9" spans="1:13">
       <c r="A9">
         <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="6"/>
